--- a/CCC Case.xlsx
+++ b/CCC Case.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcarp\Dropbox\Carpe Diem Innovations\FPA Cert\AFP Cases\4 Class session\Class 3 - Core FP&amp;A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academics\FPAC prep\Boot Camp Materials\Class 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A78615-2E09-4F08-AA09-4B2115DDFC06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF0F764-2D05-4D54-BD4A-666A034085A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCC Case Question" sheetId="1" r:id="rId1"/>
-    <sheet name="CCC Case Answer" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="CCC Case Answer" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -504,7 +504,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -664,7 +664,7 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
